--- a/REGULAR/OJT/TIMBOL, REGIDOR.xlsx
+++ b/REGULAR/OJT/TIMBOL, REGIDOR.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8362E9B0-386B-48CB-AF9D-236A438CF612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="112">
   <si>
     <t>PERIOD</t>
   </si>
@@ -372,18 +370,39 @@
       <t>8</t>
     </r>
   </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>12/1,4,5,6,7/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -734,9 +753,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,7 +848,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -849,7 +865,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -864,7 +880,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -906,7 +922,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -966,7 +982,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -979,7 +995,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -994,7 +1010,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1012,7 +1028,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1029,7 +1045,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1048,7 +1064,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1065,7 +1081,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1081,7 +1097,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1098,7 +1114,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1117,7 +1133,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1134,7 +1150,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1150,7 +1166,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1207,7 +1223,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1252,7 +1268,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1295,7 +1311,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1375,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1419,7 +1435,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1501,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1548,7 +1564,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1662,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1721,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +1786,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1829,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1888,7 +1904,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2090,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2156,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2214,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2280,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2336,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2411,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2454,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2520,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2560,7 +2576,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2658,7 +2674,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2721,7 +2737,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2770,7 +2786,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2787,25 +2803,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K270" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K345" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2817,13 +2833,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2832,14 +2848,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3136,14 +3152,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3153,7 +3169,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3161,19 +3177,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K270"/>
+  <dimension ref="A2:K345"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="1728" topLeftCell="A244" activePane="bottomLeft"/>
-      <selection activeCell="E5" sqref="E5"/>
-      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
+      <pane ySplit="1728" topLeftCell="A310"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B329" sqref="B329"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
@@ -3188,64 +3204,66 @@
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3253,7 +3271,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3266,24 +3284,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3318,7 +3336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3326,8 +3344,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>158.13499999999999</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>210.63499999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3336,14 +3354,14 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>236.75</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>319.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="48" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -3364,7 +3382,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36982</v>
       </c>
@@ -3384,10 +3402,10 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <f>EDATE(A11,1)</f>
-        <v>37012</v>
+        <f>EOMONTH(A11,1)</f>
+        <v>37042</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -3405,10 +3423,10 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <f t="shared" ref="A13:A19" si="0">EDATE(A12,1)</f>
-        <v>37043</v>
+        <f>EOMONTH(A12,1)</f>
+        <v>37072</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
@@ -3426,10 +3444,10 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <f t="shared" si="0"/>
-        <v>37073</v>
+        <f>EOMONTH(A13,1)</f>
+        <v>37103</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13">
@@ -3447,10 +3465,10 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <f t="shared" si="0"/>
-        <v>37104</v>
+        <f>EOMONTH(A14,1)</f>
+        <v>37134</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13">
@@ -3468,31 +3486,31 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
-        <f t="shared" si="0"/>
-        <v>37135</v>
+        <f>EOMONTH(A15,1)</f>
+        <v>37164</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="13">
         <v>1.25</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="43"/>
+      <c r="G16" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="42"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
-        <f t="shared" si="0"/>
-        <v>37165</v>
+        <f>EOMONTH(A16,1)</f>
+        <v>37195</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13">
@@ -3510,10 +3528,10 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <f t="shared" si="0"/>
-        <v>37196</v>
+        <f>EOMONTH(A17,1)</f>
+        <v>37225</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -3531,10 +3549,10 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <f t="shared" si="0"/>
-        <v>37226</v>
+        <f>EOMONTH(A18,1)</f>
+        <v>37256</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -3552,8 +3570,8 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B20" s="20"/>
@@ -3570,7 +3588,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>37257</v>
       </c>
@@ -3590,10 +3608,10 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <f>EDATE(A21,1)</f>
-        <v>37288</v>
+        <f>EOMONTH(A21,1)</f>
+        <v>37315</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13">
@@ -3611,10 +3629,10 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
-        <f t="shared" ref="A23:A32" si="1">EDATE(A22,1)</f>
-        <v>37316</v>
+        <f>EOMONTH(A22,1)</f>
+        <v>37346</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13">
@@ -3632,10 +3650,10 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <f t="shared" si="1"/>
-        <v>37347</v>
+        <f>EOMONTH(A23,1)</f>
+        <v>37376</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -3659,10 +3677,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <f t="shared" si="1"/>
-        <v>37377</v>
+        <f>EOMONTH(A24,1)</f>
+        <v>37407</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13">
@@ -3680,10 +3698,10 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <f t="shared" si="1"/>
-        <v>37408</v>
+        <f>EOMONTH(A25,1)</f>
+        <v>37437</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="13">
@@ -3701,10 +3719,10 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <f t="shared" si="1"/>
-        <v>37438</v>
+        <f>EOMONTH(A26,1)</f>
+        <v>37468</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13">
@@ -3722,10 +3740,10 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <f t="shared" si="1"/>
-        <v>37469</v>
+        <f>EOMONTH(A27,1)</f>
+        <v>37499</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13">
@@ -3743,10 +3761,10 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <f t="shared" si="1"/>
-        <v>37500</v>
+        <f>EOMONTH(A28,1)</f>
+        <v>37529</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13">
@@ -3764,10 +3782,10 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <f t="shared" si="1"/>
-        <v>37530</v>
+        <f>EOMONTH(A29,1)</f>
+        <v>37560</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -3785,10 +3803,10 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <f t="shared" si="1"/>
-        <v>37561</v>
+        <f>EOMONTH(A30,1)</f>
+        <v>37590</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -3806,10 +3824,10 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <f t="shared" si="1"/>
-        <v>37591</v>
+        <f>EOMONTH(A31,1)</f>
+        <v>37621</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -3827,8 +3845,8 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="48" t="s">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="20"/>
@@ -3845,7 +3863,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>37622</v>
       </c>
@@ -3865,10 +3883,10 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <f>EDATE(A34,1)</f>
-        <v>37653</v>
+        <f>EOMONTH(A34,1)</f>
+        <v>37680</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -3886,10 +3904,10 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <f t="shared" ref="A36:A55" si="2">EDATE(A35,1)</f>
-        <v>37681</v>
+        <f>EOMONTH(A35,1)</f>
+        <v>37711</v>
       </c>
       <c r="B36" s="20" t="s">
         <v>48</v>
@@ -3911,7 +3929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13">
@@ -3929,10 +3947,10 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <f>EDATE(A36,1)</f>
-        <v>37712</v>
+        <f>EOMONTH(A36,1)</f>
+        <v>37741</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13">
@@ -3950,10 +3968,10 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <f t="shared" si="2"/>
-        <v>37742</v>
+        <f>EOMONTH(A38,1)</f>
+        <v>37772</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>48</v>
@@ -3975,7 +3993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>51</v>
@@ -3995,7 +4013,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4013,10 +4031,10 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <f>EDATE(A39,1)</f>
-        <v>37773</v>
+        <f>EOMONTH(A39,1)</f>
+        <v>37802</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13">
@@ -4034,10 +4052,10 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
-        <f t="shared" si="2"/>
-        <v>37803</v>
+        <f>EOMONTH(A42,1)</f>
+        <v>37833</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>53</v>
@@ -4059,7 +4077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>55</v>
@@ -4081,7 +4099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>51</v>
@@ -4101,7 +4119,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>58</v>
@@ -4123,7 +4141,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>60</v>
@@ -4141,11 +4159,11 @@
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="49">
+      <c r="K47" s="48">
         <v>37872</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4163,10 +4181,10 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <f>EDATE(A43,1)</f>
-        <v>37834</v>
+        <f>EOMONTH(A43,1)</f>
+        <v>37864</v>
       </c>
       <c r="B49" s="20" t="s">
         <v>48</v>
@@ -4188,7 +4206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>58</v>
@@ -4210,7 +4228,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -4228,10 +4246,10 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <f>EDATE(A49,1)</f>
-        <v>37865</v>
+        <f>EOMONTH(A49,1)</f>
+        <v>37894</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>48</v>
@@ -4253,7 +4271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4271,10 +4289,10 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <f>EDATE(A52,1)</f>
-        <v>37895</v>
+        <f>EOMONTH(A52,1)</f>
+        <v>37925</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -4292,10 +4310,10 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <f t="shared" si="2"/>
-        <v>37926</v>
+        <f>EOMONTH(A54,1)</f>
+        <v>37955</v>
       </c>
       <c r="B55" s="20" t="s">
         <v>48</v>
@@ -4317,7 +4335,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4335,10 +4353,10 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <f>EDATE(A55,1)</f>
-        <v>37956</v>
+        <f>EOMONTH(A55,1)</f>
+        <v>37986</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4356,8 +4374,8 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="48" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="47" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="20"/>
@@ -4374,7 +4392,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>37987</v>
       </c>
@@ -4394,10 +4412,10 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <f>EDATE(A59,1)</f>
-        <v>38018</v>
+        <f>EOMONTH(A59,1)</f>
+        <v>38046</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13">
@@ -4415,10 +4433,10 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <f t="shared" ref="A61:A73" si="3">EDATE(A60,1)</f>
-        <v>38047</v>
+        <f>EOMONTH(A60,1)</f>
+        <v>38077</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4436,10 +4454,10 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <f>EDATE(A61,1)</f>
-        <v>38078</v>
+        <f>EOMONTH(A61,1)</f>
+        <v>38107</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>51</v>
@@ -4459,7 +4477,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4477,10 +4495,10 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <f>EDATE(A62,1)</f>
-        <v>38108</v>
+        <f>EOMONTH(A62,1)</f>
+        <v>38138</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -4498,10 +4516,10 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <f t="shared" si="3"/>
-        <v>38139</v>
+        <f>EOMONTH(A64,1)</f>
+        <v>38168</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>53</v>
@@ -4525,10 +4543,10 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <f>EDATE(A65,1)</f>
-        <v>38169</v>
+        <f>EOMONTH(A65,1)</f>
+        <v>38199</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>68</v>
@@ -4550,7 +4568,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>51</v>
@@ -4570,7 +4588,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4588,10 +4606,10 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <f>EDATE(A66,1)</f>
-        <v>38200</v>
+        <f>EOMONTH(A66,1)</f>
+        <v>38230</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4609,10 +4627,10 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <f t="shared" si="3"/>
-        <v>38231</v>
+        <f>EOMONTH(A69,1)</f>
+        <v>38260</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -4630,10 +4648,10 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <f t="shared" si="3"/>
-        <v>38261</v>
+        <f>EOMONTH(A70,1)</f>
+        <v>38291</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4651,10 +4669,10 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <f t="shared" si="3"/>
-        <v>38292</v>
+        <f>EOMONTH(A71,1)</f>
+        <v>38321</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>71</v>
@@ -4678,10 +4696,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <f t="shared" si="3"/>
-        <v>38322</v>
+        <f>EOMONTH(A72,1)</f>
+        <v>38352</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>73</v>
@@ -4703,8 +4721,8 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="48" t="s">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="47" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="20"/>
@@ -4721,7 +4739,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>38353</v>
       </c>
@@ -4741,10 +4759,10 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <f>EDATE(A75,1)</f>
-        <v>38384</v>
+        <f>EOMONTH(A75,1)</f>
+        <v>38411</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4762,10 +4780,10 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <f t="shared" ref="A77:A86" si="4">EDATE(A76,1)</f>
-        <v>38412</v>
+        <f>EOMONTH(A76,1)</f>
+        <v>38442</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4783,10 +4801,10 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <f t="shared" si="4"/>
-        <v>38443</v>
+        <f>EOMONTH(A77,1)</f>
+        <v>38472</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4804,10 +4822,10 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <f t="shared" si="4"/>
-        <v>38473</v>
+        <f>EOMONTH(A78,1)</f>
+        <v>38503</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4825,10 +4843,10 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <f t="shared" si="4"/>
-        <v>38504</v>
+        <f>EOMONTH(A79,1)</f>
+        <v>38533</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4846,10 +4864,10 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <f t="shared" si="4"/>
-        <v>38534</v>
+        <f>EOMONTH(A80,1)</f>
+        <v>38564</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13">
@@ -4867,10 +4885,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <f t="shared" si="4"/>
-        <v>38565</v>
+        <f>EOMONTH(A81,1)</f>
+        <v>38595</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4888,10 +4906,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <f t="shared" si="4"/>
-        <v>38596</v>
+        <f>EOMONTH(A82,1)</f>
+        <v>38625</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4909,10 +4927,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <f t="shared" si="4"/>
-        <v>38626</v>
+        <f>EOMONTH(A83,1)</f>
+        <v>38656</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4930,10 +4948,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <f t="shared" si="4"/>
-        <v>38657</v>
+        <f>EOMONTH(A84,1)</f>
+        <v>38686</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -4951,10 +4969,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <f t="shared" si="4"/>
-        <v>38687</v>
+        <f>EOMONTH(A85,1)</f>
+        <v>38717</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -4972,8 +4990,8 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="48" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="47" t="s">
         <v>75</v>
       </c>
       <c r="B87" s="20"/>
@@ -4990,7 +5008,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>38718</v>
       </c>
@@ -5010,10 +5028,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <f>EDATE(A88,1)</f>
-        <v>38749</v>
+        <f>EOMONTH(A88,1)</f>
+        <v>38776</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13">
@@ -5031,10 +5049,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
-        <f t="shared" ref="A90:A100" si="5">EDATE(A89,1)</f>
-        <v>38777</v>
+        <f>EOMONTH(A89,1)</f>
+        <v>38807</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13">
@@ -5052,10 +5070,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <f t="shared" si="5"/>
-        <v>38808</v>
+        <f>EOMONTH(A90,1)</f>
+        <v>38837</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5073,10 +5091,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <f t="shared" si="5"/>
-        <v>38838</v>
+        <f>EOMONTH(A91,1)</f>
+        <v>38868</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13">
@@ -5094,10 +5112,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <f t="shared" si="5"/>
-        <v>38869</v>
+        <f>EOMONTH(A92,1)</f>
+        <v>38898</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13">
@@ -5115,10 +5133,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <f t="shared" si="5"/>
-        <v>38899</v>
+        <f>EOMONTH(A93,1)</f>
+        <v>38929</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>51</v>
@@ -5138,7 +5156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -5156,10 +5174,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <f>EDATE(A94,1)</f>
-        <v>38930</v>
+        <f>EOMONTH(A94,1)</f>
+        <v>38960</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -5177,10 +5195,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <f t="shared" si="5"/>
-        <v>38961</v>
+        <f>EOMONTH(A96,1)</f>
+        <v>38990</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13">
@@ -5198,10 +5216,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <f t="shared" si="5"/>
-        <v>38991</v>
+        <f>EOMONTH(A97,1)</f>
+        <v>39021</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13">
@@ -5219,10 +5237,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <f t="shared" si="5"/>
-        <v>39022</v>
+        <f>EOMONTH(A98,1)</f>
+        <v>39051</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13">
@@ -5240,10 +5258,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <f t="shared" si="5"/>
-        <v>39052</v>
+        <f>EOMONTH(A99,1)</f>
+        <v>39082</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -5261,8 +5279,8 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="48" t="s">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="47" t="s">
         <v>77</v>
       </c>
       <c r="B101" s="20"/>
@@ -5279,7 +5297,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>39083</v>
       </c>
@@ -5299,10 +5317,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <f>EDATE(A102,1)</f>
-        <v>39114</v>
+        <f>EOMONTH(A102,1)</f>
+        <v>39141</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13">
@@ -5320,10 +5338,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <f t="shared" ref="A104:A113" si="6">EDATE(A103,1)</f>
-        <v>39142</v>
+        <f>EOMONTH(A103,1)</f>
+        <v>39172</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>78</v>
@@ -5345,10 +5363,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <f t="shared" si="6"/>
-        <v>39173</v>
+        <f>EOMONTH(A104,1)</f>
+        <v>39202</v>
       </c>
       <c r="B105" s="20" t="s">
         <v>79</v>
@@ -5370,10 +5388,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <f t="shared" si="6"/>
-        <v>39203</v>
+        <f>EOMONTH(A105,1)</f>
+        <v>39233</v>
       </c>
       <c r="B106" s="20" t="s">
         <v>80</v>
@@ -5395,10 +5413,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <f t="shared" si="6"/>
-        <v>39234</v>
+        <f>EOMONTH(A106,1)</f>
+        <v>39263</v>
       </c>
       <c r="B107" s="20" t="s">
         <v>80</v>
@@ -5420,10 +5438,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <f t="shared" si="6"/>
-        <v>39264</v>
+        <f>EOMONTH(A107,1)</f>
+        <v>39294</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
@@ -5441,10 +5459,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <f t="shared" si="6"/>
-        <v>39295</v>
+        <f>EOMONTH(A108,1)</f>
+        <v>39325</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -5462,10 +5480,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <f t="shared" si="6"/>
-        <v>39326</v>
+        <f>EOMONTH(A109,1)</f>
+        <v>39355</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13">
@@ -5483,10 +5501,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <f t="shared" si="6"/>
-        <v>39356</v>
+        <f>EOMONTH(A110,1)</f>
+        <v>39386</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13">
@@ -5504,10 +5522,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <f t="shared" si="6"/>
-        <v>39387</v>
+        <f>EOMONTH(A111,1)</f>
+        <v>39416</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -5525,10 +5543,10 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <f t="shared" si="6"/>
-        <v>39417</v>
+        <f>EOMONTH(A112,1)</f>
+        <v>39447</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5546,8 +5564,8 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="48" t="s">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="47" t="s">
         <v>81</v>
       </c>
       <c r="B114" s="20"/>
@@ -5564,7 +5582,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>39448</v>
       </c>
@@ -5584,10 +5602,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <f>EDATE(A115,1)</f>
-        <v>39479</v>
+        <f>EOMONTH(A115,1)</f>
+        <v>39507</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13">
@@ -5605,10 +5623,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <f t="shared" ref="A117:A126" si="7">EDATE(A116,1)</f>
-        <v>39508</v>
+        <f>EOMONTH(A116,1)</f>
+        <v>39538</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13">
@@ -5626,10 +5644,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <f t="shared" si="7"/>
-        <v>39539</v>
+        <f>EOMONTH(A117,1)</f>
+        <v>39568</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -5647,10 +5665,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <f t="shared" si="7"/>
-        <v>39569</v>
+        <f>EOMONTH(A118,1)</f>
+        <v>39599</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13">
@@ -5668,10 +5686,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <f t="shared" si="7"/>
-        <v>39600</v>
+        <f>EOMONTH(A119,1)</f>
+        <v>39629</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -5689,10 +5707,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <f t="shared" si="7"/>
-        <v>39630</v>
+        <f>EOMONTH(A120,1)</f>
+        <v>39660</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
@@ -5710,10 +5728,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <f t="shared" si="7"/>
-        <v>39661</v>
+        <f>EOMONTH(A121,1)</f>
+        <v>39691</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13">
@@ -5731,10 +5749,10 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <f t="shared" si="7"/>
-        <v>39692</v>
+        <f>EOMONTH(A122,1)</f>
+        <v>39721</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -5752,10 +5770,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <f t="shared" si="7"/>
-        <v>39722</v>
+        <f>EOMONTH(A123,1)</f>
+        <v>39752</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13">
@@ -5773,10 +5791,10 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <f t="shared" si="7"/>
-        <v>39753</v>
+        <f>EOMONTH(A124,1)</f>
+        <v>39782</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -5794,10 +5812,10 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <f t="shared" si="7"/>
-        <v>39783</v>
+        <f>EOMONTH(A125,1)</f>
+        <v>39813</v>
       </c>
       <c r="B126" s="20" t="s">
         <v>45</v>
@@ -5819,8 +5837,8 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="48" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="47" t="s">
         <v>82</v>
       </c>
       <c r="B127" s="20"/>
@@ -5837,7 +5855,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>39814</v>
       </c>
@@ -5857,10 +5875,10 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <f>EDATE(A128,1)</f>
-        <v>39845</v>
+        <f>EOMONTH(A128,1)</f>
+        <v>39872</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13">
@@ -5878,10 +5896,10 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <f t="shared" ref="A130:A140" si="8">EDATE(A129,1)</f>
-        <v>39873</v>
+        <f>EOMONTH(A129,1)</f>
+        <v>39903</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -5899,10 +5917,10 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <f t="shared" si="8"/>
-        <v>39904</v>
+        <f>EOMONTH(A130,1)</f>
+        <v>39933</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13">
@@ -5920,10 +5938,10 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <f t="shared" si="8"/>
-        <v>39934</v>
+        <f>EOMONTH(A131,1)</f>
+        <v>39964</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13">
@@ -5941,10 +5959,10 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <f t="shared" si="8"/>
-        <v>39965</v>
+        <f>EOMONTH(A132,1)</f>
+        <v>39994</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -5962,10 +5980,10 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <f t="shared" si="8"/>
-        <v>39995</v>
+        <f>EOMONTH(A133,1)</f>
+        <v>40025</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
@@ -5983,10 +6001,10 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <f t="shared" si="8"/>
-        <v>40026</v>
+        <f>EOMONTH(A134,1)</f>
+        <v>40056</v>
       </c>
       <c r="B135" s="20" t="s">
         <v>86</v>
@@ -6006,7 +6024,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13">
@@ -6024,10 +6042,10 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <f>EDATE(A135,1)</f>
-        <v>40057</v>
+        <f>EOMONTH(A135,1)</f>
+        <v>40086</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13">
@@ -6045,10 +6063,10 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <f t="shared" si="8"/>
-        <v>40087</v>
+        <f>EOMONTH(A137,1)</f>
+        <v>40117</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13">
@@ -6066,10 +6084,10 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <f t="shared" si="8"/>
-        <v>40118</v>
+        <f>EOMONTH(A138,1)</f>
+        <v>40147</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13">
@@ -6087,10 +6105,10 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <f t="shared" si="8"/>
-        <v>40148</v>
+        <f>EOMONTH(A139,1)</f>
+        <v>40178</v>
       </c>
       <c r="B140" s="20" t="s">
         <v>45</v>
@@ -6112,8 +6130,8 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="48" t="s">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="47" t="s">
         <v>83</v>
       </c>
       <c r="B141" s="20"/>
@@ -6130,7 +6148,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>40179</v>
       </c>
@@ -6150,10 +6168,10 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
-        <f>EDATE(A142,1)</f>
-        <v>40210</v>
+        <f>EOMONTH(A142,1)</f>
+        <v>40237</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
@@ -6171,10 +6189,10 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <f t="shared" ref="A144:A155" si="9">EDATE(A143,1)</f>
-        <v>40238</v>
+        <f>EOMONTH(A143,1)</f>
+        <v>40268</v>
       </c>
       <c r="B144" s="20" t="s">
         <v>71</v>
@@ -6196,7 +6214,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>88</v>
@@ -6218,7 +6236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13">
@@ -6236,10 +6254,10 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <f>EDATE(A144,1)</f>
-        <v>40269</v>
+        <f>EOMONTH(A144,1)</f>
+        <v>40298</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -6257,10 +6275,10 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <f t="shared" si="9"/>
-        <v>40299</v>
+        <f>EOMONTH(A147,1)</f>
+        <v>40329</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13">
@@ -6278,31 +6296,31 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <f t="shared" si="9"/>
-        <v>40330</v>
+        <f>EOMONTH(A148,1)</f>
+        <v>40359</v>
       </c>
       <c r="B149" s="15"/>
       <c r="C149" s="13">
         <v>1.25</v>
       </c>
-      <c r="D149" s="43"/>
+      <c r="D149" s="42"/>
       <c r="E149" s="9"/>
       <c r="F149" s="15"/>
-      <c r="G149" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H149" s="43"/>
+      <c r="G149" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H149" s="42"/>
       <c r="I149" s="9"/>
       <c r="J149" s="12"/>
       <c r="K149" s="15"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <f t="shared" si="9"/>
-        <v>40360</v>
+        <f>EOMONTH(A149,1)</f>
+        <v>40390</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13">
@@ -6320,10 +6338,10 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <f t="shared" si="9"/>
-        <v>40391</v>
+        <f>EOMONTH(A150,1)</f>
+        <v>40421</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -6341,10 +6359,10 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <f t="shared" si="9"/>
-        <v>40422</v>
+        <f>EOMONTH(A151,1)</f>
+        <v>40451</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13">
@@ -6362,10 +6380,10 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <f t="shared" si="9"/>
-        <v>40452</v>
+        <f>EOMONTH(A152,1)</f>
+        <v>40482</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13">
@@ -6383,10 +6401,10 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <f t="shared" si="9"/>
-        <v>40483</v>
+        <f>EOMONTH(A153,1)</f>
+        <v>40512</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13">
@@ -6404,10 +6422,10 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <f t="shared" si="9"/>
-        <v>40513</v>
+        <f>EOMONTH(A154,1)</f>
+        <v>40543</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13">
@@ -6425,8 +6443,8 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11">
-      <c r="A156" s="48" t="s">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="47" t="s">
         <v>84</v>
       </c>
       <c r="B156" s="20"/>
@@ -6443,7 +6461,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>40544</v>
       </c>
@@ -6467,7 +6485,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>45</v>
@@ -6489,7 +6507,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
@@ -6507,10 +6525,10 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <f>EDATE(A157,1)</f>
-        <v>40575</v>
+        <f>EOMONTH(A157,1)</f>
+        <v>40602</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13">
@@ -6528,10 +6546,10 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <f t="shared" ref="A161:A170" si="10">EDATE(A160,1)</f>
-        <v>40603</v>
+        <f>EOMONTH(A160,1)</f>
+        <v>40633</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13">
@@ -6549,10 +6567,10 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <f>EDATE(A161,1)</f>
-        <v>40634</v>
+        <f>EOMONTH(A161,1)</f>
+        <v>40663</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13">
@@ -6570,10 +6588,10 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <f t="shared" si="10"/>
-        <v>40664</v>
+        <f>EOMONTH(A162,1)</f>
+        <v>40694</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13">
@@ -6591,10 +6609,10 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
-        <f t="shared" si="10"/>
-        <v>40695</v>
+        <f>EOMONTH(A163,1)</f>
+        <v>40724</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13">
@@ -6612,10 +6630,10 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
-        <f t="shared" si="10"/>
-        <v>40725</v>
+        <f>EOMONTH(A164,1)</f>
+        <v>40755</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -6633,10 +6651,10 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
-        <f t="shared" si="10"/>
-        <v>40756</v>
+        <f>EOMONTH(A165,1)</f>
+        <v>40786</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13">
@@ -6654,10 +6672,10 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <f t="shared" si="10"/>
-        <v>40787</v>
+        <f>EOMONTH(A166,1)</f>
+        <v>40816</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -6675,10 +6693,10 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <f t="shared" si="10"/>
-        <v>40817</v>
+        <f>EOMONTH(A167,1)</f>
+        <v>40847</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13">
@@ -6696,10 +6714,10 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <f t="shared" si="10"/>
-        <v>40848</v>
+        <f>EOMONTH(A168,1)</f>
+        <v>40877</v>
       </c>
       <c r="B169" s="20"/>
       <c r="C169" s="13">
@@ -6717,10 +6735,10 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <f t="shared" si="10"/>
-        <v>40878</v>
+        <f>EOMONTH(A169,1)</f>
+        <v>40908</v>
       </c>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -6738,8 +6756,8 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11">
-      <c r="A171" s="48" t="s">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="47" t="s">
         <v>93</v>
       </c>
       <c r="B171" s="20"/>
@@ -6756,7 +6774,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>40909</v>
       </c>
@@ -6776,10 +6794,10 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <f>EDATE(A172,1)</f>
-        <v>40940</v>
+        <f>EOMONTH(A172,1)</f>
+        <v>40968</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13">
@@ -6797,10 +6815,10 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <f t="shared" ref="A174:A183" si="11">EDATE(A173,1)</f>
-        <v>40969</v>
+        <f>EOMONTH(A173,1)</f>
+        <v>40999</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13">
@@ -6818,10 +6836,10 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <f t="shared" si="11"/>
-        <v>41000</v>
+        <f>EOMONTH(A174,1)</f>
+        <v>41029</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -6839,10 +6857,10 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
-        <f t="shared" si="11"/>
-        <v>41030</v>
+        <f>EOMONTH(A175,1)</f>
+        <v>41060</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13">
@@ -6860,10 +6878,10 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <f t="shared" si="11"/>
-        <v>41061</v>
+        <f>EOMONTH(A176,1)</f>
+        <v>41090</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13">
@@ -6881,10 +6899,10 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <f t="shared" si="11"/>
-        <v>41091</v>
+        <f>EOMONTH(A177,1)</f>
+        <v>41121</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13">
@@ -6902,10 +6920,10 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <f t="shared" si="11"/>
-        <v>41122</v>
+        <f>EOMONTH(A178,1)</f>
+        <v>41152</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13">
@@ -6923,10 +6941,10 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <f t="shared" si="11"/>
-        <v>41153</v>
+        <f>EOMONTH(A179,1)</f>
+        <v>41182</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13">
@@ -6944,10 +6962,10 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <f t="shared" si="11"/>
-        <v>41183</v>
+        <f>EOMONTH(A180,1)</f>
+        <v>41213</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13">
@@ -6965,10 +6983,10 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <f t="shared" si="11"/>
-        <v>41214</v>
+        <f>EOMONTH(A181,1)</f>
+        <v>41243</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13">
@@ -6986,10 +7004,10 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <f t="shared" si="11"/>
-        <v>41244</v>
+        <f>EOMONTH(A182,1)</f>
+        <v>41274</v>
       </c>
       <c r="B183" s="20" t="s">
         <v>45</v>
@@ -7011,25 +7029,25 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11">
-      <c r="A184" s="51" t="s">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="50" t="s">
         <v>94</v>
       </c>
       <c r="B184" s="15"/>
-      <c r="C184" s="42"/>
-      <c r="D184" s="43"/>
-      <c r="E184" s="50"/>
+      <c r="C184" s="41"/>
+      <c r="D184" s="42"/>
+      <c r="E184" s="49"/>
       <c r="F184" s="15"/>
-      <c r="G184" s="42" t="str">
+      <c r="G184" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H184" s="43"/>
-      <c r="I184" s="50"/>
+      <c r="H184" s="42"/>
+      <c r="I184" s="49"/>
       <c r="J184" s="12"/>
       <c r="K184" s="15"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>41275</v>
       </c>
@@ -7049,10 +7067,10 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <f>EDATE(A185,1)</f>
-        <v>41306</v>
+        <f>EOMONTH(A185,1)</f>
+        <v>41333</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13">
@@ -7070,10 +7088,10 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
-        <f t="shared" ref="A187:A197" si="12">EDATE(A186,1)</f>
-        <v>41334</v>
+        <f>EOMONTH(A186,1)</f>
+        <v>41364</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13">
@@ -7091,10 +7109,10 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <f t="shared" si="12"/>
-        <v>41365</v>
+        <f>EOMONTH(A187,1)</f>
+        <v>41394</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13">
@@ -7112,10 +7130,10 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <f t="shared" si="12"/>
-        <v>41395</v>
+        <f>EOMONTH(A188,1)</f>
+        <v>41425</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13">
@@ -7133,10 +7151,10 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
-        <f t="shared" si="12"/>
-        <v>41426</v>
+        <f>EOMONTH(A189,1)</f>
+        <v>41455</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13">
@@ -7154,10 +7172,10 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
-        <f t="shared" si="12"/>
-        <v>41456</v>
+        <f>EOMONTH(A190,1)</f>
+        <v>41486</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13">
@@ -7175,10 +7193,10 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
-        <f t="shared" si="12"/>
-        <v>41487</v>
+        <f>EOMONTH(A191,1)</f>
+        <v>41517</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13">
@@ -7196,10 +7214,10 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <f t="shared" si="12"/>
-        <v>41518</v>
+        <f>EOMONTH(A192,1)</f>
+        <v>41547</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -7217,10 +7235,10 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <f t="shared" si="12"/>
-        <v>41548</v>
+        <f>EOMONTH(A193,1)</f>
+        <v>41578</v>
       </c>
       <c r="B194" s="20" t="s">
         <v>95</v>
@@ -7238,11 +7256,11 @@
       <c r="H194" s="39"/>
       <c r="I194" s="9"/>
       <c r="J194" s="11"/>
-      <c r="K194" s="52">
+      <c r="K194" s="51">
         <v>45202</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13">
@@ -7260,10 +7278,10 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <f>EDATE(A194,1)</f>
-        <v>41579</v>
+        <f>EOMONTH(A194,1)</f>
+        <v>41608</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13">
@@ -7281,10 +7299,10 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <f t="shared" si="12"/>
-        <v>41609</v>
+        <f>EOMONTH(A196,1)</f>
+        <v>41639</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7302,8 +7320,8 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11">
-      <c r="A198" s="48" t="s">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="47" t="s">
         <v>96</v>
       </c>
       <c r="B198" s="20"/>
@@ -7320,7 +7338,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>41640</v>
       </c>
@@ -7340,10 +7358,10 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <f>EDATE(A199,1)</f>
-        <v>41671</v>
+        <f>EOMONTH(A199,1)</f>
+        <v>41698</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13">
@@ -7361,10 +7379,10 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
-        <f t="shared" ref="A201:A211" si="13">EDATE(A200,1)</f>
-        <v>41699</v>
+        <f>EOMONTH(A200,1)</f>
+        <v>41729</v>
       </c>
       <c r="B201" s="20" t="s">
         <v>97</v>
@@ -7386,7 +7404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13">
@@ -7404,10 +7422,10 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
-        <f>EDATE(A201,1)</f>
-        <v>41730</v>
+        <f>EOMONTH(A201,1)</f>
+        <v>41759</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13">
@@ -7425,10 +7443,10 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <f t="shared" si="13"/>
-        <v>41760</v>
+        <f>EOMONTH(A203,1)</f>
+        <v>41790</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13">
@@ -7446,10 +7464,10 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <f t="shared" si="13"/>
-        <v>41791</v>
+        <f>EOMONTH(A204,1)</f>
+        <v>41820</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13">
@@ -7467,31 +7485,31 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
-        <f t="shared" si="13"/>
-        <v>41821</v>
+        <f>EOMONTH(A205,1)</f>
+        <v>41851</v>
       </c>
       <c r="B206" s="15"/>
       <c r="C206" s="13">
         <v>1.25</v>
       </c>
-      <c r="D206" s="43"/>
-      <c r="E206" s="50"/>
+      <c r="D206" s="42"/>
+      <c r="E206" s="49"/>
       <c r="F206" s="15"/>
-      <c r="G206" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H206" s="43"/>
-      <c r="I206" s="50"/>
+      <c r="G206" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H206" s="42"/>
+      <c r="I206" s="49"/>
       <c r="J206" s="12"/>
       <c r="K206" s="15"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
-        <f t="shared" si="13"/>
-        <v>41852</v>
+        <f>EOMONTH(A206,1)</f>
+        <v>41882</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13">
@@ -7509,10 +7527,10 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
-        <f t="shared" si="13"/>
-        <v>41883</v>
+        <f>EOMONTH(A207,1)</f>
+        <v>41912</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13">
@@ -7530,10 +7548,10 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
-        <f t="shared" si="13"/>
-        <v>41913</v>
+        <f>EOMONTH(A208,1)</f>
+        <v>41943</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13">
@@ -7551,10 +7569,10 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <f t="shared" si="13"/>
-        <v>41944</v>
+        <f>EOMONTH(A209,1)</f>
+        <v>41973</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13">
@@ -7572,10 +7590,10 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <f t="shared" si="13"/>
-        <v>41974</v>
+        <f>EOMONTH(A210,1)</f>
+        <v>42004</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13">
@@ -7593,8 +7611,8 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11">
-      <c r="A212" s="48" t="s">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" s="47" t="s">
         <v>99</v>
       </c>
       <c r="B212" s="20"/>
@@ -7611,7 +7629,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>42005</v>
       </c>
@@ -7631,10 +7649,10 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
-        <f>EDATE(A213,1)</f>
-        <v>42036</v>
+        <f>EOMONTH(A213,1)</f>
+        <v>42063</v>
       </c>
       <c r="B214" s="20"/>
       <c r="C214" s="13">
@@ -7652,10 +7670,10 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
-        <f t="shared" ref="A215:A224" si="14">EDATE(A214,1)</f>
-        <v>42064</v>
+        <f>EOMONTH(A214,1)</f>
+        <v>42094</v>
       </c>
       <c r="B215" s="20"/>
       <c r="C215" s="13">
@@ -7673,10 +7691,10 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
-        <f t="shared" si="14"/>
-        <v>42095</v>
+        <f>EOMONTH(A215,1)</f>
+        <v>42124</v>
       </c>
       <c r="B216" s="20"/>
       <c r="C216" s="13">
@@ -7694,10 +7712,10 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
-        <f t="shared" si="14"/>
-        <v>42125</v>
+        <f>EOMONTH(A216,1)</f>
+        <v>42155</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13">
@@ -7715,10 +7733,10 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
-        <f t="shared" si="14"/>
-        <v>42156</v>
+        <f>EOMONTH(A217,1)</f>
+        <v>42185</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13">
@@ -7736,10 +7754,10 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
-        <f t="shared" si="14"/>
-        <v>42186</v>
+        <f>EOMONTH(A218,1)</f>
+        <v>42216</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -7757,10 +7775,10 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
-        <f t="shared" si="14"/>
-        <v>42217</v>
+        <f>EOMONTH(A219,1)</f>
+        <v>42247</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13">
@@ -7778,10 +7796,10 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
-        <f t="shared" si="14"/>
-        <v>42248</v>
+        <f>EOMONTH(A220,1)</f>
+        <v>42277</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13">
@@ -7799,10 +7817,10 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
-        <f t="shared" si="14"/>
-        <v>42278</v>
+        <f>EOMONTH(A221,1)</f>
+        <v>42308</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13">
@@ -7820,10 +7838,10 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
-        <f t="shared" si="14"/>
-        <v>42309</v>
+        <f>EOMONTH(A222,1)</f>
+        <v>42338</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13">
@@ -7841,10 +7859,10 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
-        <f t="shared" si="14"/>
-        <v>42339</v>
+        <f>EOMONTH(A223,1)</f>
+        <v>42369</v>
       </c>
       <c r="B224" s="20" t="s">
         <v>45</v>
@@ -7866,8 +7884,8 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11">
-      <c r="A225" s="48" t="s">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="47" t="s">
         <v>100</v>
       </c>
       <c r="B225" s="20"/>
@@ -7884,7 +7902,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>42370</v>
       </c>
@@ -7904,10 +7922,10 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
-        <f>EDATE(A226,1)</f>
-        <v>42401</v>
+        <f>EOMONTH(A226,1)</f>
+        <v>42429</v>
       </c>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -7925,10 +7943,10 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
-        <f t="shared" ref="A228:A237" si="15">EDATE(A227,1)</f>
-        <v>42430</v>
+        <f>EOMONTH(A227,1)</f>
+        <v>42460</v>
       </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13">
@@ -7946,10 +7964,10 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
-        <f t="shared" si="15"/>
-        <v>42461</v>
+        <f>EOMONTH(A228,1)</f>
+        <v>42490</v>
       </c>
       <c r="B229" s="20"/>
       <c r="C229" s="13">
@@ -7967,10 +7985,10 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
-        <f t="shared" si="15"/>
-        <v>42491</v>
+        <f>EOMONTH(A229,1)</f>
+        <v>42521</v>
       </c>
       <c r="B230" s="20"/>
       <c r="C230" s="13">
@@ -7988,31 +8006,31 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
-        <f t="shared" si="15"/>
-        <v>42522</v>
+        <f>EOMONTH(A230,1)</f>
+        <v>42551</v>
       </c>
       <c r="B231" s="15"/>
       <c r="C231" s="13">
         <v>1.25</v>
       </c>
-      <c r="D231" s="43"/>
-      <c r="E231" s="50"/>
+      <c r="D231" s="42"/>
+      <c r="E231" s="49"/>
       <c r="F231" s="15"/>
-      <c r="G231" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H231" s="43"/>
-      <c r="I231" s="50"/>
+      <c r="G231" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H231" s="42"/>
+      <c r="I231" s="49"/>
       <c r="J231" s="12"/>
       <c r="K231" s="15"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
-        <f t="shared" si="15"/>
-        <v>42552</v>
+        <f>EOMONTH(A231,1)</f>
+        <v>42582</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13">
@@ -8030,10 +8048,10 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
-        <f t="shared" si="15"/>
-        <v>42583</v>
+        <f>EOMONTH(A232,1)</f>
+        <v>42613</v>
       </c>
       <c r="B233" s="20"/>
       <c r="C233" s="13">
@@ -8051,10 +8069,10 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
-        <f t="shared" si="15"/>
-        <v>42614</v>
+        <f>EOMONTH(A233,1)</f>
+        <v>42643</v>
       </c>
       <c r="B234" s="20"/>
       <c r="C234" s="13">
@@ -8072,10 +8090,10 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
-        <f t="shared" si="15"/>
-        <v>42644</v>
+        <f>EOMONTH(A234,1)</f>
+        <v>42674</v>
       </c>
       <c r="B235" s="20"/>
       <c r="C235" s="13">
@@ -8093,10 +8111,10 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
-        <f t="shared" si="15"/>
-        <v>42675</v>
+        <f>EOMONTH(A235,1)</f>
+        <v>42704</v>
       </c>
       <c r="B236" s="20"/>
       <c r="C236" s="13">
@@ -8114,10 +8132,10 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
-        <f t="shared" si="15"/>
-        <v>42705</v>
+        <f>EOMONTH(A236,1)</f>
+        <v>42735</v>
       </c>
       <c r="B237" s="20" t="s">
         <v>45</v>
@@ -8139,8 +8157,8 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11">
-      <c r="A238" s="48" t="s">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="47" t="s">
         <v>101</v>
       </c>
       <c r="B238" s="20"/>
@@ -8157,7 +8175,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>42736</v>
       </c>
@@ -8177,10 +8195,10 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
-        <f>EDATE(A239,1)</f>
-        <v>42767</v>
+        <f>EOMONTH(A239,1)</f>
+        <v>42794</v>
       </c>
       <c r="B240" s="20"/>
       <c r="C240" s="13">
@@ -8198,10 +8216,10 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
-        <f t="shared" ref="A241:A250" si="16">EDATE(A240,1)</f>
-        <v>42795</v>
+        <f>EOMONTH(A240,1)</f>
+        <v>42825</v>
       </c>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -8219,10 +8237,10 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
-        <f t="shared" si="16"/>
-        <v>42826</v>
+        <f>EOMONTH(A241,1)</f>
+        <v>42855</v>
       </c>
       <c r="B242" s="20"/>
       <c r="C242" s="13">
@@ -8240,10 +8258,10 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
-        <f t="shared" si="16"/>
-        <v>42856</v>
+        <f>EOMONTH(A242,1)</f>
+        <v>42886</v>
       </c>
       <c r="B243" s="20"/>
       <c r="C243" s="13">
@@ -8261,10 +8279,10 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
-        <f t="shared" si="16"/>
-        <v>42887</v>
+        <f>EOMONTH(A243,1)</f>
+        <v>42916</v>
       </c>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8282,10 +8300,10 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
-        <f t="shared" si="16"/>
-        <v>42917</v>
+        <f>EOMONTH(A244,1)</f>
+        <v>42947</v>
       </c>
       <c r="B245" s="20"/>
       <c r="C245" s="13">
@@ -8303,10 +8321,10 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
-        <f t="shared" si="16"/>
-        <v>42948</v>
+        <f>EOMONTH(A245,1)</f>
+        <v>42978</v>
       </c>
       <c r="B246" s="20"/>
       <c r="C246" s="13">
@@ -8324,10 +8342,10 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
-        <f t="shared" si="16"/>
-        <v>42979</v>
+        <f>EOMONTH(A246,1)</f>
+        <v>43008</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13">
@@ -8345,10 +8363,10 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
-        <f t="shared" si="16"/>
-        <v>43009</v>
+        <f>EOMONTH(A247,1)</f>
+        <v>43039</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13">
@@ -8366,10 +8384,10 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
-        <f t="shared" si="16"/>
-        <v>43040</v>
+        <f>EOMONTH(A248,1)</f>
+        <v>43069</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13">
@@ -8387,10 +8405,10 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
-        <f t="shared" si="16"/>
-        <v>43070</v>
+        <f>EOMONTH(A249,1)</f>
+        <v>43100</v>
       </c>
       <c r="B250" s="20" t="s">
         <v>45</v>
@@ -8412,8 +8430,8 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11">
-      <c r="A251" s="48" t="s">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A251" s="47" t="s">
         <v>102</v>
       </c>
       <c r="B251" s="20"/>
@@ -8430,9 +8448,9 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
-        <v>43101</v>
+        <v>43131</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13">
@@ -8450,10 +8468,10 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
-        <f>EDATE(A252,1)</f>
-        <v>43132</v>
+        <f>EOMONTH(A252,1)</f>
+        <v>43159</v>
       </c>
       <c r="B253" s="20"/>
       <c r="C253" s="13">
@@ -8471,10 +8489,10 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
-        <f t="shared" ref="A254" si="17">EDATE(A253,1)</f>
-        <v>43160</v>
+        <f>EOMONTH(A253,1)</f>
+        <v>43190</v>
       </c>
       <c r="B254" s="20"/>
       <c r="C254" s="13">
@@ -8492,10 +8510,10 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
-        <f>EDATE(A254,1)</f>
-        <v>43191</v>
+        <f>EOMONTH(A254,1)</f>
+        <v>43220</v>
       </c>
       <c r="B255" s="20" t="s">
         <v>103</v>
@@ -8515,8 +8533,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
-      <c r="A256" s="40"/>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="40">
+        <f t="shared" ref="A256:A324" si="0">EOMONTH(A255,1)</f>
+        <v>43251</v>
+      </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -8533,120 +8554,161 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11">
-      <c r="A257" s="40"/>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A257" s="40">
+        <f t="shared" si="0"/>
+        <v>43281</v>
+      </c>
       <c r="B257" s="20"/>
-      <c r="C257" s="13"/>
+      <c r="C257" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D257" s="39"/>
       <c r="E257" s="9"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G257" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H257" s="39"/>
       <c r="I257" s="9"/>
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11">
-      <c r="A258" s="40"/>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A258" s="40">
+        <f t="shared" si="0"/>
+        <v>43312</v>
+      </c>
       <c r="B258" s="20"/>
-      <c r="C258" s="13"/>
+      <c r="C258" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D258" s="39"/>
       <c r="E258" s="9"/>
       <c r="F258" s="20"/>
-      <c r="G258" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G258" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H258" s="39"/>
       <c r="I258" s="9"/>
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11">
-      <c r="A259" s="40"/>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A259" s="40">
+        <f t="shared" si="0"/>
+        <v>43343</v>
+      </c>
       <c r="B259" s="20"/>
-      <c r="C259" s="13"/>
+      <c r="C259" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D259" s="39"/>
       <c r="E259" s="9"/>
       <c r="F259" s="20"/>
-      <c r="G259" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G259" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H259" s="39"/>
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11">
-      <c r="A260" s="40"/>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="40">
+        <f t="shared" si="0"/>
+        <v>43373</v>
+      </c>
       <c r="B260" s="20"/>
-      <c r="C260" s="13"/>
+      <c r="C260" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D260" s="39"/>
       <c r="E260" s="9"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G260" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H260" s="39"/>
       <c r="I260" s="9"/>
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11">
-      <c r="A261" s="40"/>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="40">
+        <f t="shared" si="0"/>
+        <v>43404</v>
+      </c>
       <c r="B261" s="20"/>
-      <c r="C261" s="13"/>
+      <c r="C261" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D261" s="39"/>
       <c r="E261" s="9"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G261" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H261" s="39"/>
       <c r="I261" s="9"/>
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11">
-      <c r="A262" s="40"/>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="40">
+        <f t="shared" si="0"/>
+        <v>43434</v>
+      </c>
       <c r="B262" s="20"/>
-      <c r="C262" s="13"/>
+      <c r="C262" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D262" s="39"/>
       <c r="E262" s="9"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G262" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H262" s="39"/>
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11">
-      <c r="A263" s="40"/>
-      <c r="B263" s="20"/>
-      <c r="C263" s="13"/>
-      <c r="D263" s="39"/>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A263" s="40">
+        <f t="shared" si="0"/>
+        <v>43465</v>
+      </c>
+      <c r="B263" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C263" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D263" s="39">
+        <v>5</v>
+      </c>
       <c r="E263" s="9"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G263" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H263" s="39"/>
       <c r="I263" s="9"/>
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11">
-      <c r="A264" s="40"/>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="47" t="s">
+        <v>102</v>
+      </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13"/>
       <c r="D264" s="39"/>
@@ -8661,101 +8723,1680 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11">
-      <c r="A265" s="40"/>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A265" s="40">
+        <f>EOMONTH(A263,1)</f>
+        <v>43496</v>
+      </c>
       <c r="B265" s="20"/>
-      <c r="C265" s="13"/>
+      <c r="C265" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D265" s="39"/>
       <c r="E265" s="9"/>
       <c r="F265" s="20"/>
-      <c r="G265" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G265" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H265" s="39"/>
       <c r="I265" s="9"/>
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11">
-      <c r="A266" s="40"/>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A266" s="40">
+        <f t="shared" si="0"/>
+        <v>43524</v>
+      </c>
       <c r="B266" s="20"/>
-      <c r="C266" s="13"/>
+      <c r="C266" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D266" s="39"/>
       <c r="E266" s="9"/>
       <c r="F266" s="20"/>
-      <c r="G266" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G266" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H266" s="39"/>
       <c r="I266" s="9"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11">
-      <c r="A267" s="40"/>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A267" s="40">
+        <f t="shared" si="0"/>
+        <v>43555</v>
+      </c>
       <c r="B267" s="20"/>
-      <c r="C267" s="13"/>
+      <c r="C267" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D267" s="39"/>
       <c r="E267" s="9"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G267" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H267" s="39"/>
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11">
-      <c r="A268" s="40"/>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="40">
+        <f t="shared" si="0"/>
+        <v>43585</v>
+      </c>
       <c r="B268" s="20"/>
-      <c r="C268" s="13"/>
+      <c r="C268" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D268" s="39"/>
       <c r="E268" s="9"/>
       <c r="F268" s="20"/>
-      <c r="G268" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G268" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H268" s="39"/>
       <c r="I268" s="9"/>
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11">
-      <c r="A269" s="40"/>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" s="40">
+        <f t="shared" si="0"/>
+        <v>43616</v>
+      </c>
       <c r="B269" s="20"/>
-      <c r="C269" s="13"/>
+      <c r="C269" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D269" s="39"/>
       <c r="E269" s="9"/>
       <c r="F269" s="20"/>
-      <c r="G269" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G269" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H269" s="39"/>
       <c r="I269" s="9"/>
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11">
-      <c r="A270" s="41"/>
-      <c r="B270" s="15"/>
-      <c r="C270" s="42"/>
-      <c r="D270" s="43"/>
-      <c r="E270" s="50"/>
-      <c r="F270" s="15"/>
-      <c r="G270" s="42" t="str">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A270" s="40">
+        <f t="shared" si="0"/>
+        <v>43646</v>
+      </c>
+      <c r="B270" s="20"/>
+      <c r="C270" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D270" s="39"/>
+      <c r="E270" s="9"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H270" s="39"/>
+      <c r="I270" s="9"/>
+      <c r="J270" s="11"/>
+      <c r="K270" s="20"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" s="40">
+        <f t="shared" si="0"/>
+        <v>43677</v>
+      </c>
+      <c r="B271" s="15"/>
+      <c r="C271" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D271" s="42"/>
+      <c r="E271" s="49"/>
+      <c r="F271" s="15"/>
+      <c r="G271" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H271" s="42"/>
+      <c r="I271" s="49"/>
+      <c r="J271" s="12"/>
+      <c r="K271" s="15"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" s="40">
+        <f t="shared" si="0"/>
+        <v>43708</v>
+      </c>
+      <c r="B272" s="20"/>
+      <c r="C272" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D272" s="39"/>
+      <c r="E272" s="9"/>
+      <c r="F272" s="20"/>
+      <c r="G272" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H272" s="39"/>
+      <c r="I272" s="9"/>
+      <c r="J272" s="11"/>
+      <c r="K272" s="20"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A273" s="40">
+        <f t="shared" si="0"/>
+        <v>43738</v>
+      </c>
+      <c r="B273" s="20"/>
+      <c r="C273" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D273" s="39"/>
+      <c r="E273" s="9"/>
+      <c r="F273" s="20"/>
+      <c r="G273" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H273" s="39"/>
+      <c r="I273" s="9"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="20"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" s="40">
+        <f t="shared" si="0"/>
+        <v>43769</v>
+      </c>
+      <c r="B274" s="20"/>
+      <c r="C274" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D274" s="39"/>
+      <c r="E274" s="9"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H274" s="39"/>
+      <c r="I274" s="9"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="20"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" s="40">
+        <f t="shared" si="0"/>
+        <v>43799</v>
+      </c>
+      <c r="B275" s="20"/>
+      <c r="C275" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D275" s="39"/>
+      <c r="E275" s="9"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H275" s="39"/>
+      <c r="I275" s="9"/>
+      <c r="J275" s="11"/>
+      <c r="K275" s="20"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A276" s="40">
+        <f t="shared" si="0"/>
+        <v>43830</v>
+      </c>
+      <c r="B276" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C276" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D276" s="39">
+        <v>5</v>
+      </c>
+      <c r="E276" s="9"/>
+      <c r="F276" s="20"/>
+      <c r="G276" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H276" s="39"/>
+      <c r="I276" s="9"/>
+      <c r="J276" s="11"/>
+      <c r="K276" s="20"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A277" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B277" s="20"/>
+      <c r="C277" s="13"/>
+      <c r="D277" s="39"/>
+      <c r="E277" s="9"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H270" s="43"/>
-      <c r="I270" s="50"/>
-      <c r="J270" s="12"/>
-      <c r="K270" s="15"/>
+      <c r="H277" s="39"/>
+      <c r="I277" s="9"/>
+      <c r="J277" s="11"/>
+      <c r="K277" s="20"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A278" s="40">
+        <f>EOMONTH(A276,1)</f>
+        <v>43861</v>
+      </c>
+      <c r="B278" s="20"/>
+      <c r="C278" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D278" s="39"/>
+      <c r="E278" s="9"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H278" s="39"/>
+      <c r="I278" s="9"/>
+      <c r="J278" s="11"/>
+      <c r="K278" s="20"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A279" s="40">
+        <f t="shared" si="0"/>
+        <v>43890</v>
+      </c>
+      <c r="B279" s="20"/>
+      <c r="C279" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D279" s="39"/>
+      <c r="E279" s="9"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H279" s="39"/>
+      <c r="I279" s="9"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="20"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A280" s="40">
+        <f t="shared" si="0"/>
+        <v>43921</v>
+      </c>
+      <c r="B280" s="20"/>
+      <c r="C280" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D280" s="39"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H280" s="39"/>
+      <c r="I280" s="9"/>
+      <c r="J280" s="11"/>
+      <c r="K280" s="20"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A281" s="40">
+        <f t="shared" si="0"/>
+        <v>43951</v>
+      </c>
+      <c r="B281" s="20"/>
+      <c r="C281" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D281" s="39"/>
+      <c r="E281" s="9"/>
+      <c r="F281" s="20"/>
+      <c r="G281" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H281" s="39"/>
+      <c r="I281" s="9"/>
+      <c r="J281" s="11"/>
+      <c r="K281" s="20"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A282" s="40">
+        <f t="shared" si="0"/>
+        <v>43982</v>
+      </c>
+      <c r="B282" s="20"/>
+      <c r="C282" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D282" s="39"/>
+      <c r="E282" s="9"/>
+      <c r="F282" s="20"/>
+      <c r="G282" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H282" s="39"/>
+      <c r="I282" s="9"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="20"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A283" s="40">
+        <f t="shared" si="0"/>
+        <v>44012</v>
+      </c>
+      <c r="B283" s="20"/>
+      <c r="C283" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D283" s="39"/>
+      <c r="E283" s="9"/>
+      <c r="F283" s="20"/>
+      <c r="G283" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H283" s="39"/>
+      <c r="I283" s="9"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="20"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A284" s="40">
+        <f t="shared" si="0"/>
+        <v>44043</v>
+      </c>
+      <c r="B284" s="20"/>
+      <c r="C284" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D284" s="39"/>
+      <c r="E284" s="9"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H284" s="39"/>
+      <c r="I284" s="9"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="20"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="40">
+        <f t="shared" si="0"/>
+        <v>44074</v>
+      </c>
+      <c r="B285" s="20"/>
+      <c r="C285" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D285" s="39"/>
+      <c r="E285" s="9"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H285" s="39"/>
+      <c r="I285" s="9"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="20"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="40">
+        <f t="shared" si="0"/>
+        <v>44104</v>
+      </c>
+      <c r="B286" s="20"/>
+      <c r="C286" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D286" s="39"/>
+      <c r="E286" s="9"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H286" s="39"/>
+      <c r="I286" s="9"/>
+      <c r="J286" s="11"/>
+      <c r="K286" s="20"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="40">
+        <f t="shared" si="0"/>
+        <v>44135</v>
+      </c>
+      <c r="B287" s="20"/>
+      <c r="C287" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D287" s="39"/>
+      <c r="E287" s="9"/>
+      <c r="F287" s="20"/>
+      <c r="G287" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H287" s="39"/>
+      <c r="I287" s="9"/>
+      <c r="J287" s="11"/>
+      <c r="K287" s="20"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="40">
+        <f t="shared" si="0"/>
+        <v>44165</v>
+      </c>
+      <c r="B288" s="20"/>
+      <c r="C288" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D288" s="39"/>
+      <c r="E288" s="9"/>
+      <c r="F288" s="20"/>
+      <c r="G288" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H288" s="39"/>
+      <c r="I288" s="9"/>
+      <c r="J288" s="11"/>
+      <c r="K288" s="20"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="40">
+        <f t="shared" si="0"/>
+        <v>44196</v>
+      </c>
+      <c r="B289" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C289" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D289" s="39">
+        <v>5</v>
+      </c>
+      <c r="E289" s="9"/>
+      <c r="F289" s="20"/>
+      <c r="G289" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H289" s="39"/>
+      <c r="I289" s="9"/>
+      <c r="J289" s="11"/>
+      <c r="K289" s="20"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B290" s="20"/>
+      <c r="C290" s="13"/>
+      <c r="D290" s="39"/>
+      <c r="E290" s="9"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H290" s="39"/>
+      <c r="I290" s="9"/>
+      <c r="J290" s="11"/>
+      <c r="K290" s="20"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="40">
+        <f>EOMONTH(A289,1)</f>
+        <v>44227</v>
+      </c>
+      <c r="B291" s="20"/>
+      <c r="C291" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D291" s="39"/>
+      <c r="E291" s="9"/>
+      <c r="F291" s="20"/>
+      <c r="G291" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H291" s="39"/>
+      <c r="I291" s="9"/>
+      <c r="J291" s="11"/>
+      <c r="K291" s="20"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A292" s="40">
+        <f t="shared" si="0"/>
+        <v>44255</v>
+      </c>
+      <c r="B292" s="20"/>
+      <c r="C292" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D292" s="39"/>
+      <c r="E292" s="9"/>
+      <c r="F292" s="20"/>
+      <c r="G292" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H292" s="39"/>
+      <c r="I292" s="9"/>
+      <c r="J292" s="11"/>
+      <c r="K292" s="20"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A293" s="40">
+        <f t="shared" si="0"/>
+        <v>44286</v>
+      </c>
+      <c r="B293" s="20"/>
+      <c r="C293" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D293" s="39"/>
+      <c r="E293" s="9"/>
+      <c r="F293" s="20"/>
+      <c r="G293" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H293" s="39"/>
+      <c r="I293" s="9"/>
+      <c r="J293" s="11"/>
+      <c r="K293" s="20"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A294" s="40">
+        <f t="shared" si="0"/>
+        <v>44316</v>
+      </c>
+      <c r="B294" s="20"/>
+      <c r="C294" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D294" s="39"/>
+      <c r="E294" s="9"/>
+      <c r="F294" s="20"/>
+      <c r="G294" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H294" s="39"/>
+      <c r="I294" s="9"/>
+      <c r="J294" s="11"/>
+      <c r="K294" s="20"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A295" s="40">
+        <f t="shared" si="0"/>
+        <v>44347</v>
+      </c>
+      <c r="B295" s="20"/>
+      <c r="C295" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D295" s="39"/>
+      <c r="E295" s="9"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H295" s="39"/>
+      <c r="I295" s="9"/>
+      <c r="J295" s="11"/>
+      <c r="K295" s="20"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A296" s="40">
+        <f t="shared" si="0"/>
+        <v>44377</v>
+      </c>
+      <c r="B296" s="20"/>
+      <c r="C296" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D296" s="39"/>
+      <c r="E296" s="9"/>
+      <c r="F296" s="20"/>
+      <c r="G296" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H296" s="39"/>
+      <c r="I296" s="9"/>
+      <c r="J296" s="11"/>
+      <c r="K296" s="20"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A297" s="40">
+        <f t="shared" si="0"/>
+        <v>44408</v>
+      </c>
+      <c r="B297" s="20"/>
+      <c r="C297" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D297" s="39"/>
+      <c r="E297" s="9"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H297" s="39"/>
+      <c r="I297" s="9"/>
+      <c r="J297" s="11"/>
+      <c r="K297" s="20"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A298" s="40">
+        <f>EOMONTH(A297,1)</f>
+        <v>44439</v>
+      </c>
+      <c r="B298" s="20"/>
+      <c r="C298" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D298" s="39"/>
+      <c r="E298" s="9"/>
+      <c r="F298" s="20"/>
+      <c r="G298" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H298" s="39"/>
+      <c r="I298" s="9"/>
+      <c r="J298" s="11"/>
+      <c r="K298" s="20"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A299" s="40">
+        <f t="shared" si="0"/>
+        <v>44469</v>
+      </c>
+      <c r="B299" s="20"/>
+      <c r="C299" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D299" s="39"/>
+      <c r="E299" s="9"/>
+      <c r="F299" s="20"/>
+      <c r="G299" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H299" s="39"/>
+      <c r="I299" s="9"/>
+      <c r="J299" s="11"/>
+      <c r="K299" s="20"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A300" s="40">
+        <f t="shared" si="0"/>
+        <v>44500</v>
+      </c>
+      <c r="B300" s="20"/>
+      <c r="C300" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D300" s="39"/>
+      <c r="E300" s="9"/>
+      <c r="F300" s="20"/>
+      <c r="G300" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H300" s="39"/>
+      <c r="I300" s="9"/>
+      <c r="J300" s="11"/>
+      <c r="K300" s="20"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="40">
+        <f t="shared" si="0"/>
+        <v>44530</v>
+      </c>
+      <c r="B301" s="20"/>
+      <c r="C301" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D301" s="39"/>
+      <c r="E301" s="9"/>
+      <c r="F301" s="20"/>
+      <c r="G301" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H301" s="39"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="20"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="40">
+        <f t="shared" si="0"/>
+        <v>44561</v>
+      </c>
+      <c r="B302" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C302" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D302" s="39">
+        <v>5</v>
+      </c>
+      <c r="E302" s="9"/>
+      <c r="F302" s="20"/>
+      <c r="G302" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H302" s="39"/>
+      <c r="I302" s="9"/>
+      <c r="J302" s="11"/>
+      <c r="K302" s="20"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A303" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B303" s="20"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="39"/>
+      <c r="E303" s="9"/>
+      <c r="F303" s="20"/>
+      <c r="G303" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H303" s="39"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="11"/>
+      <c r="K303" s="20"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A304" s="40">
+        <f>EOMONTH(A302,1)</f>
+        <v>44592</v>
+      </c>
+      <c r="B304" s="20"/>
+      <c r="C304" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D304" s="39"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="20"/>
+      <c r="G304" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H304" s="39"/>
+      <c r="I304" s="9"/>
+      <c r="J304" s="11"/>
+      <c r="K304" s="20"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A305" s="40">
+        <f t="shared" si="0"/>
+        <v>44620</v>
+      </c>
+      <c r="B305" s="20"/>
+      <c r="C305" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D305" s="39"/>
+      <c r="E305" s="9"/>
+      <c r="F305" s="20"/>
+      <c r="G305" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H305" s="39"/>
+      <c r="I305" s="9"/>
+      <c r="J305" s="11"/>
+      <c r="K305" s="20"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A306" s="40">
+        <f t="shared" si="0"/>
+        <v>44651</v>
+      </c>
+      <c r="B306" s="20"/>
+      <c r="C306" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D306" s="39"/>
+      <c r="E306" s="9"/>
+      <c r="F306" s="20"/>
+      <c r="G306" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H306" s="39"/>
+      <c r="I306" s="9"/>
+      <c r="J306" s="11"/>
+      <c r="K306" s="20"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A307" s="40">
+        <f t="shared" si="0"/>
+        <v>44681</v>
+      </c>
+      <c r="B307" s="20"/>
+      <c r="C307" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D307" s="39"/>
+      <c r="E307" s="9"/>
+      <c r="F307" s="20"/>
+      <c r="G307" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H307" s="39"/>
+      <c r="I307" s="9"/>
+      <c r="J307" s="11"/>
+      <c r="K307" s="20"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A308" s="40">
+        <f t="shared" si="0"/>
+        <v>44712</v>
+      </c>
+      <c r="B308" s="20"/>
+      <c r="C308" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D308" s="39"/>
+      <c r="E308" s="9"/>
+      <c r="F308" s="20"/>
+      <c r="G308" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H308" s="39"/>
+      <c r="I308" s="9"/>
+      <c r="J308" s="11"/>
+      <c r="K308" s="20"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A309" s="40">
+        <f t="shared" si="0"/>
+        <v>44742</v>
+      </c>
+      <c r="B309" s="20"/>
+      <c r="C309" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D309" s="39"/>
+      <c r="E309" s="9"/>
+      <c r="F309" s="20"/>
+      <c r="G309" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H309" s="39"/>
+      <c r="I309" s="9"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="20"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A310" s="40">
+        <f t="shared" si="0"/>
+        <v>44773</v>
+      </c>
+      <c r="B310" s="20"/>
+      <c r="C310" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D310" s="39"/>
+      <c r="E310" s="9"/>
+      <c r="F310" s="20"/>
+      <c r="G310" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H310" s="39"/>
+      <c r="I310" s="9"/>
+      <c r="J310" s="11"/>
+      <c r="K310" s="20"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A311" s="40">
+        <f t="shared" si="0"/>
+        <v>44804</v>
+      </c>
+      <c r="B311" s="20"/>
+      <c r="C311" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D311" s="39"/>
+      <c r="E311" s="9"/>
+      <c r="F311" s="20"/>
+      <c r="G311" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H311" s="39"/>
+      <c r="I311" s="9"/>
+      <c r="J311" s="11"/>
+      <c r="K311" s="20"/>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="40">
+        <f t="shared" si="0"/>
+        <v>44834</v>
+      </c>
+      <c r="B312" s="20"/>
+      <c r="C312" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D312" s="39"/>
+      <c r="E312" s="9"/>
+      <c r="F312" s="20"/>
+      <c r="G312" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H312" s="39"/>
+      <c r="I312" s="9"/>
+      <c r="J312" s="11"/>
+      <c r="K312" s="20"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="40">
+        <f t="shared" si="0"/>
+        <v>44865</v>
+      </c>
+      <c r="B313" s="20"/>
+      <c r="C313" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D313" s="39"/>
+      <c r="E313" s="9"/>
+      <c r="F313" s="20"/>
+      <c r="G313" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H313" s="39"/>
+      <c r="I313" s="9"/>
+      <c r="J313" s="11"/>
+      <c r="K313" s="20"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="40">
+        <f t="shared" si="0"/>
+        <v>44895</v>
+      </c>
+      <c r="B314" s="20"/>
+      <c r="C314" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D314" s="39"/>
+      <c r="E314" s="9"/>
+      <c r="F314" s="20"/>
+      <c r="G314" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H314" s="39"/>
+      <c r="I314" s="9"/>
+      <c r="J314" s="11"/>
+      <c r="K314" s="20"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="40">
+        <f t="shared" si="0"/>
+        <v>44926</v>
+      </c>
+      <c r="B315" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C315" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D315" s="39">
+        <v>5</v>
+      </c>
+      <c r="E315" s="9"/>
+      <c r="F315" s="20"/>
+      <c r="G315" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H315" s="39"/>
+      <c r="I315" s="9"/>
+      <c r="J315" s="11"/>
+      <c r="K315" s="20"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B316" s="20"/>
+      <c r="C316" s="13"/>
+      <c r="D316" s="39"/>
+      <c r="E316" s="9"/>
+      <c r="F316" s="20"/>
+      <c r="G316" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H316" s="39"/>
+      <c r="I316" s="9"/>
+      <c r="J316" s="11"/>
+      <c r="K316" s="20"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="40">
+        <f>EOMONTH(A315,1)</f>
+        <v>44957</v>
+      </c>
+      <c r="B317" s="20"/>
+      <c r="C317" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D317" s="39"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="20"/>
+      <c r="G317" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H317" s="39"/>
+      <c r="I317" s="9"/>
+      <c r="J317" s="11"/>
+      <c r="K317" s="20"/>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="40">
+        <f t="shared" si="0"/>
+        <v>44985</v>
+      </c>
+      <c r="B318" s="20"/>
+      <c r="C318" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D318" s="39"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="20"/>
+      <c r="G318" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H318" s="39"/>
+      <c r="I318" s="9"/>
+      <c r="J318" s="11"/>
+      <c r="K318" s="20"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="40">
+        <f t="shared" si="0"/>
+        <v>45016</v>
+      </c>
+      <c r="B319" s="20"/>
+      <c r="C319" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D319" s="39"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="20"/>
+      <c r="G319" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H319" s="39"/>
+      <c r="I319" s="9"/>
+      <c r="J319" s="11"/>
+      <c r="K319" s="20"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A320" s="40">
+        <f t="shared" si="0"/>
+        <v>45046</v>
+      </c>
+      <c r="B320" s="20"/>
+      <c r="C320" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D320" s="39"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="20"/>
+      <c r="G320" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H320" s="39"/>
+      <c r="I320" s="9"/>
+      <c r="J320" s="11"/>
+      <c r="K320" s="20"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="40">
+        <f t="shared" si="0"/>
+        <v>45077</v>
+      </c>
+      <c r="B321" s="20"/>
+      <c r="C321" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D321" s="39"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="20"/>
+      <c r="G321" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H321" s="39"/>
+      <c r="I321" s="9"/>
+      <c r="J321" s="11"/>
+      <c r="K321" s="20"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" s="40">
+        <f t="shared" si="0"/>
+        <v>45107</v>
+      </c>
+      <c r="B322" s="20"/>
+      <c r="C322" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D322" s="39"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="20"/>
+      <c r="G322" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H322" s="39"/>
+      <c r="I322" s="9"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="20"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="40">
+        <f t="shared" si="0"/>
+        <v>45138</v>
+      </c>
+      <c r="B323" s="20"/>
+      <c r="C323" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D323" s="39"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="20"/>
+      <c r="G323" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H323" s="39"/>
+      <c r="I323" s="9"/>
+      <c r="J323" s="11"/>
+      <c r="K323" s="20"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" s="40">
+        <f t="shared" si="0"/>
+        <v>45169</v>
+      </c>
+      <c r="B324" s="20"/>
+      <c r="C324" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D324" s="39"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="20"/>
+      <c r="G324" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H324" s="39"/>
+      <c r="I324" s="9"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="20"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="40">
+        <f t="shared" ref="A325" si="1">EOMONTH(A324,1)</f>
+        <v>45199</v>
+      </c>
+      <c r="B325" s="20"/>
+      <c r="C325" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D325" s="39"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="20"/>
+      <c r="G325" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H325" s="39"/>
+      <c r="I325" s="9"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="20"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="40">
+        <f>EOMONTH(A325,1)</f>
+        <v>45230</v>
+      </c>
+      <c r="B326" s="20"/>
+      <c r="C326" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D326" s="39"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="20"/>
+      <c r="G326" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H326" s="39"/>
+      <c r="I326" s="9"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="20"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="40">
+        <f t="shared" ref="A327:A345" si="2">EOMONTH(A326,1)</f>
+        <v>45260</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D327" s="39"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H327" s="39"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="20"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" s="40">
+        <f t="shared" si="2"/>
+        <v>45291</v>
+      </c>
+      <c r="B328" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C328" s="13"/>
+      <c r="D328" s="39">
+        <v>5</v>
+      </c>
+      <c r="E328" s="9"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H328" s="39"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="40">
+        <f t="shared" si="2"/>
+        <v>45322</v>
+      </c>
+      <c r="B329" s="20"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="39"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H329" s="39"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="20"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" s="40">
+        <f t="shared" si="2"/>
+        <v>45351</v>
+      </c>
+      <c r="B330" s="20"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="39"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H330" s="39"/>
+      <c r="I330" s="9"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="20"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" s="40">
+        <f t="shared" si="2"/>
+        <v>45382</v>
+      </c>
+      <c r="B331" s="20"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="39"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H331" s="39"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="20"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" s="40">
+        <f t="shared" si="2"/>
+        <v>45412</v>
+      </c>
+      <c r="B332" s="20"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="39"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H332" s="39"/>
+      <c r="I332" s="9"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="20"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" s="40">
+        <f t="shared" si="2"/>
+        <v>45443</v>
+      </c>
+      <c r="B333" s="20"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="39"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="20"/>
+      <c r="G333" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H333" s="39"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="20"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" s="40">
+        <f t="shared" si="2"/>
+        <v>45473</v>
+      </c>
+      <c r="B334" s="20"/>
+      <c r="C334" s="13"/>
+      <c r="D334" s="39"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="20"/>
+      <c r="G334" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H334" s="39"/>
+      <c r="I334" s="9"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="20"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" s="40">
+        <f t="shared" si="2"/>
+        <v>45504</v>
+      </c>
+      <c r="B335" s="20"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="39"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="20"/>
+      <c r="G335" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H335" s="39"/>
+      <c r="I335" s="9"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="20"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" s="40">
+        <f t="shared" si="2"/>
+        <v>45535</v>
+      </c>
+      <c r="B336" s="20"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="39"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="20"/>
+      <c r="G336" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H336" s="39"/>
+      <c r="I336" s="9"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="20"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" s="40">
+        <f t="shared" si="2"/>
+        <v>45565</v>
+      </c>
+      <c r="B337" s="20"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="39"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H337" s="39"/>
+      <c r="I337" s="9"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="20"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" s="40">
+        <f t="shared" si="2"/>
+        <v>45596</v>
+      </c>
+      <c r="B338" s="20"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="39"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="20"/>
+      <c r="G338" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H338" s="39"/>
+      <c r="I338" s="9"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="20"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" s="40">
+        <f t="shared" si="2"/>
+        <v>45626</v>
+      </c>
+      <c r="B339" s="20"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="39"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="20"/>
+      <c r="G339" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H339" s="39"/>
+      <c r="I339" s="9"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="20"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="40">
+        <f t="shared" si="2"/>
+        <v>45657</v>
+      </c>
+      <c r="B340" s="20"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="39"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="20"/>
+      <c r="G340" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H340" s="39"/>
+      <c r="I340" s="9"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="20"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="40">
+        <f t="shared" si="2"/>
+        <v>45688</v>
+      </c>
+      <c r="B341" s="20"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="39"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="20"/>
+      <c r="G341" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H341" s="39"/>
+      <c r="I341" s="9"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="20"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" s="40">
+        <f t="shared" si="2"/>
+        <v>45716</v>
+      </c>
+      <c r="B342" s="20"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="39"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="20"/>
+      <c r="G342" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H342" s="39"/>
+      <c r="I342" s="9"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="20"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" s="40">
+        <f t="shared" si="2"/>
+        <v>45747</v>
+      </c>
+      <c r="B343" s="20"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="39"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H343" s="39"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="20"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" s="40">
+        <f t="shared" si="2"/>
+        <v>45777</v>
+      </c>
+      <c r="B344" s="20"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="39"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H344" s="39"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="20"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345" s="40">
+        <f t="shared" si="2"/>
+        <v>45808</v>
+      </c>
+      <c r="B345" s="20"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="39"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H345" s="39"/>
+      <c r="I345" s="9"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8772,10 +10413,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8798,7 +10439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8806,7 +10447,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
@@ -8820,20 +10461,20 @@
     <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="63" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8849,7 +10490,7 @@
       <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="45" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -8858,11 +10499,11 @@
       <c r="K2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -8874,7 +10515,7 @@
       <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>2.1000000000000005E-2</v>
       </c>
@@ -8883,22 +10524,22 @@
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="45" t="str">
+      <c r="L3" s="44" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8911,15 +10552,15 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="I6" s="64" t="s">
+      <c r="G6" s="43"/>
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8932,7 +10573,7 @@
       <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="43"/>
       <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
@@ -8946,7 +10587,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8972,7 +10613,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8998,7 +10639,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9024,7 +10665,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9050,7 +10691,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9076,7 +10717,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9102,7 +10743,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9128,7 +10769,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9148,7 +10789,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9168,7 +10809,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9188,7 +10829,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9209,7 +10850,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9230,7 +10871,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9251,7 +10892,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9272,7 +10913,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9293,7 +10934,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9314,7 +10955,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9335,7 +10976,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9356,7 +10997,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9377,7 +11018,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9398,7 +11039,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9419,7 +11060,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9440,7 +11081,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9461,7 +11102,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9482,7 +11123,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9503,7 +11144,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9524,7 +11165,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9545,7 +11186,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9566,7 +11207,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9587,7 +11228,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9608,7 +11249,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9617,7 +11258,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9626,7 +11267,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9635,7 +11276,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9644,7 +11285,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9653,7 +11294,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9662,7 +11303,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9671,7 +11312,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9680,7 +11321,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9689,7 +11330,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9698,7 +11339,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9707,7 +11348,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9716,7 +11357,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9725,7 +11366,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9734,7 +11375,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9743,7 +11384,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9752,7 +11393,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9761,7 +11402,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9770,7 +11411,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9779,7 +11420,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9788,7 +11429,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9797,7 +11438,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9806,7 +11447,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9815,7 +11456,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9824,7 +11465,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9833,7 +11474,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9842,7 +11483,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9851,7 +11492,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9860,7 +11501,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9869,7 +11510,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
